--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\_TrainingMaterial\VEDA-Training\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1AE1F2-5C8E-433D-974E-30B9418D9CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49811784-CF91-426C-A44C-1D2EE2839472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -388,9 +388,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -715,41 +715,36 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -774,20 +769,18 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -797,13 +790,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +805,7 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,23 +820,23 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -855,9 +848,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,8 +857,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -876,7 +864,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Migliaia_tab emissioni" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2789,7 +2777,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3244,9 +3232,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J38"/>
+  <dimension ref="B3:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3257,8 +3245,7 @@
     <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3268,8 +3255,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3286,159 +3272,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="J6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3492,104 +3352,104 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="62" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>2</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="12">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11">
         <v>5</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
         <v>5</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11">
         <v>5</v>
       </c>
     </row>
@@ -3604,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:F37"/>
+  <dimension ref="B3:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3663,10 +3523,10 @@
       <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
       <c r="E6">
@@ -3677,10 +3537,10 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
       <c r="E7">
@@ -3690,41 +3550,41 @@
     <row r="18" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="74" t="s">
+      <c r="E35" s="64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>2222</v>
       </c>
       <c r="D36" t="s">
@@ -3734,17 +3594,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>8888</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>2222</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>8888</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3767,22 +3674,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="12.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3810,73 +3717,65 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="9">
         <v>2005</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="9">
         <v>0.05</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="13">
         <f>C23</f>
         <v>0.24971461187214614</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="13">
         <f>D23</f>
         <v>0.22973744292237441</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="13">
         <f>E23</f>
         <v>0.24942922374429224</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="13">
         <f>F23</f>
         <v>0.27111872146118721</v>
       </c>
@@ -3884,265 +3783,248 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>0.9</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>0.95</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="31" t="s">
+      <c r="F22" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="27">
         <f>C32/$F32*$E27</f>
         <v>0.24971461187214614</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="28">
         <f>D32/$F32*$E27</f>
         <v>0.22973744292237441</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="28">
         <f>C33/$F33*$E28</f>
         <v>0.24942922374429224</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="29">
         <f>D33/$F33*$E28</f>
         <v>0.27111872146118721</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="30">
         <f>SUM(C23:F23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="39"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="31"/>
+      <c r="C26" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="39">
         <v>175</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="40">
         <f>D27/D29</f>
         <v>0.47945205479452052</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="44">
         <f>365-D27</f>
         <v>190</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="45">
         <f>D28/D29</f>
         <v>0.52054794520547942</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="37"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="53">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="46">
         <f>SUM(D27:D28)</f>
         <v>365</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="47">
         <f>SUM(E27:E28)</f>
         <v>1</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="61">
+      <c r="C32" s="54">
         <v>12.5</v>
       </c>
-      <c r="D32" s="62">
+      <c r="D32" s="55">
         <v>11.5</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="63">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48">
         <f>SUM(C32:E32)</f>
         <v>24</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="57">
         <v>11.5</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="58">
         <v>12.5</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48">
         <f>SUM(C33:E33)</f>
         <v>24</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4180,74 +4062,72 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
       <c r="D6" t="s">
         <v>34</v>
       </c>
@@ -4263,12 +4143,9 @@
       <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4293,7 +4170,7 @@
       <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="75">
+      <c r="D12" s="65">
         <v>1055.55</v>
       </c>
     </row>
@@ -4304,7 +4181,7 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="65">
         <v>3.6</v>
       </c>
     </row>
@@ -4315,7 +4192,7 @@
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="65">
         <v>1000</v>
       </c>
     </row>
@@ -4326,7 +4203,7 @@
       <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="75">
+      <c r="D15" s="65">
         <v>1000</v>
       </c>
     </row>
@@ -4337,7 +4214,7 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="65">
         <v>1.05555</v>
       </c>
     </row>
@@ -4348,7 +4225,7 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="65">
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
@@ -4359,7 +4236,7 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="65">
         <v>41.868000000000002</v>
       </c>
     </row>
@@ -4370,7 +4247,7 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="66">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
@@ -4381,7 +4258,7 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="65">
         <v>1000000</v>
       </c>
     </row>
@@ -4392,7 +4269,7 @@
       <c r="C21" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="75">
+      <c r="D21" s="65">
         <v>1000</v>
       </c>
     </row>
@@ -4403,7 +4280,7 @@
       <c r="C22" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="75">
+      <c r="D22" s="65">
         <v>0.15384600000000001</v>
       </c>
     </row>
@@ -4414,7 +4291,7 @@
       <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="75">
+      <c r="D23" s="65">
         <v>-1E-3</v>
       </c>
     </row>
@@ -4425,7 +4302,7 @@
       <c r="C24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="75">
+      <c r="D24" s="65">
         <v>1000</v>
       </c>
     </row>
@@ -4436,7 +4313,7 @@
       <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="75">
+      <c r="D25" s="65">
         <v>37.681199999999997</v>
       </c>
     </row>
@@ -4447,7 +4324,7 @@
       <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="75">
+      <c r="D26" s="65">
         <v>2299</v>
       </c>
     </row>
@@ -4458,7 +4335,7 @@
       <c r="C27" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="75">
+      <c r="D27" s="65">
         <v>2.7777769999999999</v>
       </c>
     </row>
@@ -4469,7 +4346,7 @@
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="75">
+      <c r="D28" s="65">
         <v>3.6</v>
       </c>
     </row>
@@ -4480,7 +4357,7 @@
       <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="75">
+      <c r="D29" s="65">
         <v>1</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49811784-CF91-426C-A44C-1D2EE2839472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7F85E-8A47-43DA-993E-C0B269107E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -25,17 +25,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -63,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="106">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3466,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
@@ -3666,10 +3656,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:H33"/>
+  <dimension ref="B3:W53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3683,147 +3673,39 @@
     <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="13">
-        <f>C23</f>
-        <v>0.24971461187214614</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="13">
-        <f>D23</f>
-        <v>0.22973744292237441</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="13">
-        <f>E23</f>
-        <v>0.24942922374429224</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="13">
-        <f>F23</f>
-        <v>0.27111872146118721</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="C15"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>43</v>
       </c>
@@ -3833,11 +3715,11 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
@@ -3854,7 +3736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18" ht="24" x14ac:dyDescent="0.2">
       <c r="B22" s="23"/>
       <c r="C22" s="24" t="s">
         <v>48</v>
@@ -3869,7 +3751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
         <v>36</v>
       </c>
@@ -3894,22 +3776,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="33" t="s">
         <v>52</v>
@@ -3922,8 +3807,29 @@
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="31"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="s">
         <v>55</v>
       </c>
@@ -3939,8 +3845,14 @@
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="N27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O27" s="9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="42" t="s">
         <v>57</v>
       </c>
@@ -3957,8 +3869,14 @@
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="31"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="N28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="46">
@@ -3971,16 +3889,36 @@
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L29" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="13">
+        <f>C23</f>
+        <v>0.24971461187214614</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="49"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="13">
+        <f>D23</f>
+        <v>0.22973744292237441</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="50"/>
       <c r="C31" s="51" t="s">
         <v>59</v>
@@ -3991,8 +3929,18 @@
       <c r="E31" s="52"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="13">
+        <f>E23</f>
+        <v>0.24942922374429224</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="53" t="s">
         <v>56</v>
       </c>
@@ -4008,8 +3956,18 @@
         <v>24</v>
       </c>
       <c r="G32" s="31"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="L32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="13">
+        <f>F23</f>
+        <v>0.27111872146118721</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>61</v>
       </c>
@@ -4025,6 +3983,243 @@
         <v>24</v>
       </c>
       <c r="G33" s="31"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P34" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="U35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R36" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="R37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="13">
+        <f>G32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P39" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="13">
+        <f>H32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="13">
+        <f>I32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="13">
+        <f>J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="V42" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E45" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="G47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="G48" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="13" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="J53" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4037,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4218,7 +4413,7 @@
         <v>1.05555</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -4229,7 +4424,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -4240,7 +4435,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -4251,7 +4446,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -4262,7 +4457,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>100</v>
       </c>
@@ -4273,7 +4468,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>102</v>
       </c>
@@ -4283,8 +4478,11 @@
       <c r="D22" s="65">
         <v>0.15384600000000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="N22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>104</v>
       </c>
@@ -4294,8 +4492,26 @@
       <c r="D23" s="65">
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="N23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>95</v>
       </c>
@@ -4305,8 +4521,26 @@
       <c r="D24" s="65">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>96</v>
       </c>
@@ -4316,8 +4550,26 @@
       <c r="D25" s="65">
         <v>37.681199999999997</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>97</v>
       </c>
@@ -4327,8 +4579,26 @@
       <c r="D26" s="65">
         <v>2299</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="N26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>98</v>
       </c>
@@ -4338,8 +4608,11 @@
       <c r="D27" s="65">
         <v>2.7777769999999999</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>99</v>
       </c>
@@ -4349,8 +4622,26 @@
       <c r="D28" s="65">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="P28" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -4359,6 +4650,64 @@
       </c>
       <c r="D29" s="65">
         <v>1</v>
+      </c>
+      <c r="P29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T31" t="s">
+        <v>38</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F7F85E-8A47-43DA-993E-C0B269107E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810CA34D-9BC4-4700-A197-2AFEB81307B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="106">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -3454,10 +3454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B3:H41"/>
+  <dimension ref="B3:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3551,12 +3551,12 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>3</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>3</v>
       </c>
@@ -3595,53 +3595,6 @@
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="G39" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>2222</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>8888</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3656,10 +3609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B3:W53"/>
+  <dimension ref="B3:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3967,7 +3920,7 @@
         <v>0.27111872146118721</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="56" t="s">
         <v>61</v>
       </c>
@@ -3998,228 +3951,339 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P34" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="P35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U35" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="S36" s="9">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="R37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="S37" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S38" s="13">
-        <f>G32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P39" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S39" s="13">
-        <f>H32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S40" s="13">
-        <f>I32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P41" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S41" s="13">
-        <f>J32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S38" s="13"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S39" s="13"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="S40" s="13"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="S41" s="13"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T42" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="U42" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="V42" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="G47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" s="9">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="G48" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E49" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E50" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E51" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E52" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="13" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D53"/>
       <c r="E53"/>
       <c r="F53"/>
-      <c r="G53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="J53" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="K53" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L53" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+    </row>
+    <row r="56" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4232,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:U31"/>
+  <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27:U31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4413,7 +4477,7 @@
         <v>1.05555</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>91</v>
       </c>
@@ -4424,7 +4488,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -4435,7 +4499,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>93</v>
       </c>
@@ -4446,7 +4510,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>94</v>
       </c>
@@ -4457,7 +4521,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>100</v>
       </c>
@@ -4468,7 +4532,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>102</v>
       </c>
@@ -4482,7 +4546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>104</v>
       </c>
@@ -4511,7 +4575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>95</v>
       </c>
@@ -4540,7 +4604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>96</v>
       </c>
@@ -4569,7 +4633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>97</v>
       </c>
@@ -4598,7 +4662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>98</v>
       </c>
@@ -4608,11 +4672,8 @@
       <c r="D27" s="65">
         <v>2.7777769999999999</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>99</v>
       </c>
@@ -4622,26 +4683,8 @@
       <c r="D28" s="65">
         <v>3.6</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S28" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="U28" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -4650,64 +4693,6 @@
       </c>
       <c r="D29" s="65">
         <v>1</v>
-      </c>
-      <c r="P29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="P31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>38</v>
-      </c>
-      <c r="R31" t="s">
-        <v>38</v>
-      </c>
-      <c r="S31" t="s">
-        <v>38</v>
-      </c>
-      <c r="T31" t="s">
-        <v>38</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
